--- a/5.xlsx
+++ b/5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rexus\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Projekte\Repositories\hermess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1FEBC5-8715-47B9-9A4A-27EE23A9F6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B21C5F-3430-491A-B0B8-8E9F1F8199E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>pera bn br,.klöäes</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>+ jlnfz jiohtdpkfäpglüös#rvä</t>
+  </si>
+  <si>
+    <t>yxfergdrf</t>
   </si>
 </sst>
 </file>
@@ -361,47 +364,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
